--- a/web-platform_22_01_dev/data/oit_create_users.xlsx
+++ b/web-platform_22_01_dev/data/oit_create_users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogdan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_22_01_dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D36300-01CB-4515-A50B-4F95BEF15FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13000549-5ACC-4A02-973B-1BAF05B41806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Страница 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Страница 1'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Страница 1'!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>Имя пользователя</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Инженер I  категории (системный)</t>
+  </si>
+  <si>
+    <t>Права суперпользователя</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -453,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -778,14 +784,15 @@
     <col min="11" max="11" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="20.7109375" style="1"/>
+    <col min="14" max="14" width="25.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -825,20 +832,23 @@
       <c r="M1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -876,14 +886,17 @@
       <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="10"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -923,14 +936,17 @@
       <c r="M3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="10"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -971,15 +987,18 @@
         <v>23</v>
       </c>
       <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1019,14 +1038,17 @@
       <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="10"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1066,14 +1088,17 @@
       <c r="M6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="10"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1113,14 +1138,17 @@
       <c r="M7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="10"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1160,14 +1188,17 @@
       <c r="M8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="10"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1207,14 +1238,17 @@
       <c r="M9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="10"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1254,14 +1288,17 @@
       <c r="M10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="10"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1301,14 +1338,17 @@
       <c r="M11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="10"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1348,14 +1388,17 @@
       <c r="M12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="10"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1395,20 +1438,23 @@
       <c r="M13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="10"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N14" s="6"/>
+    <row r="14" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{9FE2A492-1CEE-4D3E-8B8B-AB7ED580314E}"/>
+  <autoFilter ref="A1:R1" xr:uid="{9FE2A492-1CEE-4D3E-8B8B-AB7ED580314E}"/>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" xr:uid="{40894D92-B3A6-489C-B6A1-AD1FB76140A6}"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{40894D92-B3A6-489C-B6A1-AD1FB76140A6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
